--- a/data/18650/18650_-10_dc_2.xlsx
+++ b/data/18650/18650_-10_dc_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Desktop\Battery_lowtemperature\pythonProject\data\18650\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1673E1DD-B36B-4ECC-BA23-E08D0059B03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E0397D-DE82-45C7-9D85-33B3E40F163E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>time</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>SoC</t>
+  </si>
+  <si>
+    <t>IC_oragion</t>
+  </si>
+  <si>
+    <t>IC fix_min</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -371,15 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F295"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:F295"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +407,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -419,8 +434,11 @@
         <f>E2/3400</f>
         <v>0.81147058823529417</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
@@ -441,8 +459,15 @@
         <f>E3/3400</f>
         <v>0.80869691993464055</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f>(E3-E2)/(C3-C2)</f>
+        <v>383.19675831866306</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>20</v>
       </c>
@@ -463,8 +488,15 @@
         <f t="shared" ref="F4:F67" si="0">E4/3400</f>
         <v>0.80592351307189536</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f t="shared" ref="G4:H67" si="1">(E4-E3)/(C4-C3)</f>
+        <v>475.04198152812921</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>30</v>
       </c>
@@ -478,15 +510,22 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E68" si="1">E4+((10/3600)*D5*1000)</f>
+        <f t="shared" ref="E5:E68" si="2">E4+((10/3600)*D5*1000)</f>
         <v>2730.7094999999999</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>0.80314985294117647</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>635.04676393563636</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>40</v>
       </c>
@@ -500,15 +539,22 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2721.2790555555557</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0.80037619281045758</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>833.81471657332247</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
@@ -522,15 +568,22 @@
         <v>-3.3949099999999999</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2711.8487500000001</v>
       </c>
       <c r="F7">
         <f>E7/3400</f>
         <v>0.79760257352941177</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>878.87283835562755</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60</v>
       </c>
@@ -544,15 +597,23 @@
         <v>-3.39459</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2702.4193333333333</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>0.79482921568627452</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1129.2714570858382</v>
+      </c>
+      <c r="H8">
+        <f>(E9-E2)/(C9-C2)</f>
+        <v>683.1338323731992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>70</v>
       </c>
@@ -566,15 +627,23 @@
         <v>-3.395</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2692.9887777777776</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>0.79205552287581693</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1360.8305274971885</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H72" si="3">(E10-E3)/(C10-C3)</f>
+        <v>850.32812343452611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>80</v>
       </c>
@@ -588,15 +657,23 @@
         <v>-3.3948800000000001</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2683.5585555555554</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>0.78928192810457509</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1680.9665280253896</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>1055.0037291566789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>90</v>
       </c>
@@ -610,15 +687,23 @@
         <v>-3.3948700000000001</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2674.1283611111107</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>0.78650834150326787</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1968.7253537461472</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>1277.3031690746595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>100</v>
       </c>
@@ -632,15 +717,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2664.6984722222219</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>0.78373484477124178</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2381.2850729518864</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>1505.37438236413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>110</v>
       </c>
@@ -654,15 +747,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2655.2683888888887</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>0.78096129084967314</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2709.7940613025235</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1809.4983552631634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>120</v>
       </c>
@@ -676,15 +777,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2645.8382499999998</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>0.77818772058823527</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>2806.5889550266206</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>2172.1189353222885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>130</v>
       </c>
@@ -698,15 +807,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2636.4086388888886</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>0.77541430555555546</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>4172.3942969515674</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>2602.9300297931941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>140</v>
       </c>
@@ -720,15 +837,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2626.9784722222221</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>0.77264072712418297</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>4963.2456140349859</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>3025.2227823607423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>150</v>
       </c>
@@ -742,15 +867,23 @@
         <v>-3.3948999999999998</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2617.5481944444441</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>0.76986711601307178</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>4555.6897477192806</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>3554.6819840842591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>160</v>
       </c>
@@ -764,15 +897,23 @@
         <v>-3.3948999999999998</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2608.1179166666661</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>0.7670935049019606</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>6123.5569985558577</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>4159.4622978365978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>170</v>
       </c>
@@ -786,15 +927,23 @@
         <v>-3.3948399999999999</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2598.6878055555549</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0.76431994281045734</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>7484.215167549718</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>4963.2101086048615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>180</v>
       </c>
@@ -808,15 +957,23 @@
         <v>-3.3948399999999999</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2589.2576944444436</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>0.76154638071895397</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>10362.759462757494</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>6174.9948030349105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>190</v>
       </c>
@@ -830,15 +987,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2579.8275555555547</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0.7587728104575161</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>12573.518518518064</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>7509.7806851221721</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>200</v>
       </c>
@@ -852,15 +1017,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2570.3976666666658</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0.7559993137254899</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>26194.135802491313</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>9030.1793585653086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>210</v>
       </c>
@@ -874,15 +1047,23 @@
         <v>-3.39473</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2560.9678611111103</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>0.75322584150326777</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>22451.917989413218</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>12645.609833971943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>220</v>
       </c>
@@ -896,15 +1077,23 @@
         <v>-3.3947099999999999</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2551.5381111111105</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>0.75045238562091487</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>-471487.49999690044</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>17509.195402299683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>230</v>
       </c>
@@ -918,15 +1107,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2542.1082499999993</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>0.74767889705882329</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>104776.23456773306</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>22452.201436128686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>240</v>
       </c>
@@ -940,15 +1137,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2532.6783333333328</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>0.74490539215686258</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>21930.038759681727</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>32678.039053906756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>250</v>
       </c>
@@ -962,15 +1167,23 @@
         <v>-3.3948999999999998</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2523.2480555555549</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0.74213178104575139</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-943027.77777161938</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>74167.446941355418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>260</v>
       </c>
@@ -984,15 +1197,23 @@
         <v>-3.3946299999999998</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2513.818527777777</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>0.73935839052287555</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-24814.546783608279</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>300043.56060591049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>270</v>
       </c>
@@ -1006,15 +1227,23 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2504.3880833333328</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>0.73658473039215666</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-30420.788530483827</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>-94299.126984107163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>280</v>
       </c>
@@ -1028,15 +1257,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2494.9584722222216</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>0.73381131535947697</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-18859.222222216045</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>-55470.074696554322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>290</v>
       </c>
@@ -1050,15 +1287,23 @@
         <v>-3.3947099999999999</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2485.5287222222219</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>0.73103785947712407</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-18489.705882360191</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>-48182.238442818882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>300</v>
       </c>
@@ -1072,15 +1317,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2476.098583333333</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>0.7282642892156862</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-104779.32098748509</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>-31735.523504268818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>310</v>
       </c>
@@ -1094,15 +1347,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2466.668444444444</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
         <v>0.72549071895424821</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-33679.067460310544</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>-31735.349893157523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>320</v>
       </c>
@@ -1116,15 +1377,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2457.2385277777776</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
         <v>0.7227172140522875</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-942991.66666047089</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>-39059.188034188519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>330</v>
       </c>
@@ -1138,15 +1407,23 @@
         <v>-3.3948100000000001</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2447.8084999999996</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
         <v>0.7199436764705881</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>943002.77777161449</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>-42863.888888892368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>340</v>
       </c>
@@ -1160,15 +1437,23 @@
         <v>-3.3950900000000002</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2438.3776944444439</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
         <v>0.71716991013071885</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-58942.534722327822</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>-55009.189814820726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>350</v>
       </c>
@@ -1182,15 +1467,23 @@
         <v>-3.3948900000000002</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2428.947444444444</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
         <v>0.71439630718954239</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-58939.062499940352</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>-110017.73148149367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>360</v>
       </c>
@@ -1204,15 +1497,23 @@
         <v>-3.3945699999999999</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2419.5180833333329</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
         <v>0.71162296568627437</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>104770.67901217638</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>-188601.11111107204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>370</v>
       </c>
@@ -1226,15 +1527,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2410.0881944444441</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
         <v>0.70884946895424827</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>58936.805555659979</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>366727.62345619779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>380</v>
       </c>
@@ -1248,15 +1557,23 @@
         <v>-3.39506</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2400.6574722222217</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>0.70607572712418287</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>37722.888888843328</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>82513.402777741707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>390</v>
       </c>
@@ -1270,15 +1587,23 @@
         <v>-3.3946800000000001</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2391.2278055555548</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
         <v>0.70330229575163372</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>15458.469945355571</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>51977.034120721852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>400</v>
       </c>
@@ -1292,15 +1617,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2381.7976666666659</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>0.70052872549019585</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>19646.122685183749</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>31888.82179281049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>410</v>
       </c>
@@ -1314,15 +1647,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2372.3678333333328</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
         <v>0.6977552450980391</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>14734.114583338736</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>22605.983637747166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>420</v>
       </c>
@@ -1336,15 +1677,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2362.9379722222216</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
         <v>0.69498175653594751</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>13666.465378420487</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>20063.990206012797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>430</v>
       </c>
@@ -1358,15 +1707,23 @@
         <v>-3.3949500000000001</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2353.507555555555</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
         <v>0.69220810457516324</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>20500.905797105515</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>17325.648877223284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>440</v>
       </c>
@@ -1380,15 +1737,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2344.0774722222218</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
         <v>0.6894345506535946</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>13867.769607842638</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>15944.57192699927</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>450</v>
       </c>
@@ -1402,15 +1767,23 @@
         <v>-3.39499</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2334.6469444444442</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
         <v>0.68666086601307186</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>16259.530651333715</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>16100.243902439806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>460</v>
       </c>
@@ -1424,15 +1797,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2325.2168055555553</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
         <v>0.68388729575163387</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>16544.103313847805</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>15209.895033281944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>470</v>
       </c>
@@ -1446,15 +1827,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2315.7867222222221</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
         <v>0.68111374183006534</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>13097.337962957739</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>14867.454954954126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>480</v>
       </c>
@@ -1468,15 +1857,23 @@
         <v>-3.3949400000000001</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2306.3563333333332</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
         <v>0.67834009803921569</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>12743.768768769498</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>14044.976359337466</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>490</v>
       </c>
@@ -1490,15 +1887,23 @@
         <v>-3.3947099999999999</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2296.9265833333334</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
         <v>0.6755666421568628</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>9926.0526315786537</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>12549.609209969673</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>500</v>
       </c>
@@ -1512,15 +1917,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2287.4966111111112</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
         <v>0.67279312091503274</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>9245.0708061000114</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>11724.79277679085</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>510</v>
       </c>
@@ -1534,15 +1947,23 @@
         <v>-3.3946999999999998</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2278.066888888889</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
         <v>0.67001967320261446</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>8980.6878306897033</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>10282.022326064502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>520</v>
       </c>
@@ -1556,15 +1977,23 @@
         <v>-3.39499</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2268.6363611111115</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
         <v>0.66724598856209161</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>6883.5969180853481</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>9067.357295481972</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>530</v>
       </c>
@@ -1578,15 +2007,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2259.206444444445</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
         <v>0.6644724836601309</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>6594.3473193469981</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>8473.7020396519492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>540</v>
       </c>
@@ -1600,15 +2037,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2249.7765833333337</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
         <v>0.66169899509803931</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>7666.5537488705113</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>7747.6558424622617</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>550</v>
       </c>
@@ -1622,15 +2067,23 @@
         <v>-3.3948999999999998</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2240.3463055555558</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
         <v>0.65892538398692813</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>6415.15495086998</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>7159.4992769341834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>560</v>
       </c>
@@ -1644,15 +2097,23 @@
         <v>-3.3949099999999999</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2230.9160000000002</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
         <v>0.65615176470588243</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>5715.3367003362064</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>6722.0666440371288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>570</v>
       </c>
@@ -1666,15 +2127,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2221.485916666667</v>
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
         <v>0.6533782107843138</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>5821.0390946502775</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>6335.0634463638962</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>580</v>
       </c>
@@ -1688,15 +2157,23 @@
         <v>-3.3949400000000001</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2212.055527777778</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
         <v>0.65060456699346414</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>5715.3872053882596</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>6146.2911235259035</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>590</v>
       </c>
@@ -1710,15 +2187,23 @@
         <v>-3.3949199999999999</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2202.6251944444448</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
         <v>0.64783093954248372</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>5580.0788954635555</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>5909.6985974336567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>600</v>
       </c>
@@ -1732,15 +2217,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2193.1951111111116</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
         <v>0.64505738562091519</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>5069.937275985053</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>5523.960948396244</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>610</v>
       </c>
@@ -1754,15 +2247,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2183.7652500000004</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
         <v>0.64228389705882361</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>4691.4731896079347</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>5332.1082390953543</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>620</v>
       </c>
@@ -1776,15 +2277,23 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2174.3348055555562</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
         <v>0.63951023692810471</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>4963.3918128653449</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>5205.9170171748437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>630</v>
       </c>
@@ -1798,15 +2307,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2164.904972222223</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
         <v>0.63673675653594797</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>4835.8119658110209</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>5165.1756216310541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>640</v>
       </c>
@@ -1820,15 +2337,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2155.4749722222232</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
         <v>0.63396322712418329</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>5482.5581395356758</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>5077.7521367519494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>650</v>
       </c>
@@ -1842,15 +2367,23 @@
         <v>-3.3948800000000001</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2146.0447500000009</v>
       </c>
       <c r="F67">
         <f t="shared" si="0"/>
         <v>0.63118963235294145</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>5042.8995840753705</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="3"/>
+        <v>4970.7371151269708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>660</v>
       </c>
@@ -1864,15 +2397,23 @@
         <v>-3.39514</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2136.6138055555566</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F131" si="2">E68/3400</f>
+        <f t="shared" ref="F68:F131" si="4">E68/3400</f>
         <v>0.628415825163399</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <f t="shared" ref="G68:G131" si="5">(E68-E67)/(C68-C67)</f>
+        <v>4787.2814438802998</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>4871.7404674046384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>670</v>
       </c>
@@ -1886,15 +2427,23 @@
         <v>-3.3950800000000001</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E132" si="3">E68+((10/3600)*D69*1000)</f>
+        <f t="shared" ref="E69:E132" si="6">E68+((10/3600)*D69*1000)</f>
         <v>2127.183027777779</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.62564206699346436</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>4427.5952008350978</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>4974.5499455746249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>680</v>
       </c>
@@ -1908,15 +2457,23 @@
         <v>-3.3948200000000002</v>
       </c>
       <c r="E70">
+        <f t="shared" si="6"/>
+        <v>2117.7529722222234</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>0.62286852124183045</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>5450.8991650602857</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="3"/>
-        <v>2117.7529722222234</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="2"/>
-        <v>0.62286852124183045</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5161.2609677697765</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>690</v>
       </c>
@@ -1930,15 +2487,23 @@
         <v>-3.3950499999999999</v>
       </c>
       <c r="E71">
+        <f t="shared" si="6"/>
+        <v>2108.3222777777792</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>0.62009478758169978</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>6641.3341158059329</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="3"/>
-        <v>2108.3222777777792</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="2"/>
-        <v>0.62009478758169978</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5230.8306920233554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>700</v>
       </c>
@@ -1952,15 +2517,23 @@
         <v>-3.3949400000000001</v>
       </c>
       <c r="E72">
+        <f t="shared" si="6"/>
+        <v>2098.8918888888902</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>0.61732114379085001</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>5297.9712858936518</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="3"/>
-        <v>2098.8918888888902</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="2"/>
-        <v>0.61732114379085001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5268.4268865833164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>710</v>
       </c>
@@ -1974,15 +2547,23 @@
         <v>-3.3949099999999999</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2089.4615833333346</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.61454752450980432</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>5785.4635310156373</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ref="H73:H136" si="7">(E74-E67)/(C74-C67)</f>
+        <v>5358.20256132758</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>720</v>
       </c>
@@ -1996,15 +2577,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2080.0316944444457</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.61177402777777812</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>5680.6559571612179</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>5464.6316225167056</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>730</v>
       </c>
@@ -2018,15 +2607,23 @@
         <v>-3.3950300000000002</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2070.6010555555567</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60900031045751668</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>5451.2363519596338</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>5599.0245971162003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>740</v>
       </c>
@@ -2040,15 +2637,23 @@
         <v>-3.39499</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2061.1705277777792</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60622662581699382</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>5125.2868357485013</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>5666.3161659513753</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>750</v>
       </c>
@@ -2062,15 +2667,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2051.7403888888903</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60345305555555595</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>5930.9049615645945</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>5397.5470155356779</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>760</v>
       </c>
@@ -2084,15 +2697,23 @@
         <v>-3.3948399999999999</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2042.3102777777792</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.60067949346405269</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>4715.0555555560422</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>5451.0000917514026</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>770</v>
       </c>
@@ -2106,15 +2727,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2032.8802777777792</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.59790596405228802</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>5680.7228915655614</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>5455.5463728189852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>780</v>
       </c>
@@ -2128,15 +2757,23 @@
         <v>-3.3950900000000002</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2023.4494722222237</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.59513219771241876</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>5821.484910836879</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>5402.0026368430063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>790</v>
       </c>
@@ -2150,15 +2787,23 @@
         <v>-3.3948900000000002</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2014.0192222222236</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5923585947712422</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>5297.8932584266886</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>5442.0697077951872</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>800</v>
       </c>
@@ -2172,15 +2817,23 @@
         <v>-3.3949699999999998</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2004.5887500000013</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58958492647058858</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>5750.287940380711</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>5524.0353324034859</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>810</v>
       </c>
@@ -2194,15 +2847,23 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1995.1583055555568</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58681126633986969</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>5680.9906291826601</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>5336.4636665769513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>820</v>
       </c>
@@ -2216,15 +2877,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1985.7283333333346</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58403774509803963</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>4691.5284687676267</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>5424.189719711404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>830</v>
       </c>
@@ -2238,15 +2907,23 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1976.2978888888902</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58126408496732063</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>5239.1358024684214</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>5214.2289801650531</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>840</v>
       </c>
@@ -2260,15 +2937,23 @@
         <v>-3.3947099999999999</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1966.8681388888901</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.57849062908496773</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>4385.9302325584022</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>5340.6980402732415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>850</v>
       </c>
@@ -2282,15 +2967,23 @@
         <v>-3.3946900000000002</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1957.4384444444456</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.57571718954248396</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>7143.7079124568354</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>5437.4908475198708</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>860</v>
       </c>
@@ -2304,15 +2997,23 @@
         <v>-3.39493</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1948.0080833333345</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.57294355392156893</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>6045.1032763549656</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>5344.9842555105379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>870</v>
       </c>
@@ -2326,15 +3027,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1938.5781944444457</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.57017005718954283</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>5097.2372372368618</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>5314.8304705671526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>880</v>
       </c>
@@ -2348,15 +3057,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1929.1481111111123</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.56739650326797419</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>5450.9152215792792</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>5441.943757442551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>890</v>
       </c>
@@ -2370,15 +3087,23 @@
         <v>-3.395</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1919.7175555555566</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.56462281045751661</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>5482.8811369518498</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>5450.848701715845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>900</v>
       </c>
@@ -2392,15 +3117,23 @@
         <v>-3.3946000000000001</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1910.2881111111121</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.56184944444444473</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>5297.4406991257656</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>5700.3670120898705</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>910</v>
       </c>
@@ -2414,15 +3147,23 @@
         <v>-3.3948800000000001</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1900.8578888888899</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5590758496732029</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>5821.1248285324191</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>5482.5950535253769</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>920</v>
       </c>
@@ -2436,15 +3177,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1891.428000000001</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5563023529411768</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>5297.6903870158685</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>5450.6560234882827</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>930</v>
       </c>
@@ -2458,15 +3207,23 @@
         <v>-3.39385</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1882.0006388888899</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.55352959967320292</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>5783.6571233810128</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>5459.7118830989302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>940</v>
       </c>
@@ -2480,15 +3237,23 @@
         <v>-3.39493</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1872.5702777777788</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.55075596405228788</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>5153.2027929568885</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>5589.1828958511451</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>950</v>
       </c>
@@ -2502,15 +3267,23 @@
         <v>-3.3949500000000001</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1863.1398611111122</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.54798231209150361</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>6503.7356321850675</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>5419.3326947636015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>960</v>
       </c>
@@ -2524,15 +3297,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1853.7100833333343</v>
       </c>
       <c r="F98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.54520884803921599</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>4511.8553960651698</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>5414.9712879409808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>970</v>
       </c>
@@ -2546,15 +3327,23 @@
         <v>-3.3949699999999998</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1844.279611111112</v>
       </c>
       <c r="F99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.54243517973856237</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>5268.4202358791599</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>5293.372984050633</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>980</v>
       </c>
@@ -2568,15 +3357,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1834.8495277777786</v>
       </c>
       <c r="F100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53966162581699373</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>4963.2017543859738</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>5297.6168182629417</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>990</v>
       </c>
@@ -2590,15 +3387,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1825.4196944444452</v>
       </c>
       <c r="F101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53688814542483687</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>5327.5894538605089</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="7"/>
+        <v>5226.5373449458557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1000</v>
       </c>
@@ -2612,15 +3417,23 @@
         <v>-3.3948800000000001</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1815.989472222223</v>
       </c>
       <c r="F102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53411455065359503</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>5239.0123456783149</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="7"/>
+        <v>5137.0492866408204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1010</v>
       </c>
@@ -2634,15 +3447,23 @@
         <v>-3.3948999999999998</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1806.5591944444452</v>
       </c>
       <c r="F103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53134093954248385</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>4600.1355013557541</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="7"/>
+        <v>5097.3830973831136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1020</v>
       </c>
@@ -2656,15 +3477,23 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1797.1287500000008</v>
       </c>
       <c r="F104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52856727941176496</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>6084.157706093426</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="7"/>
+        <v>5230.7294418033098</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1030</v>
       </c>
@@ -2678,15 +3507,23 @@
         <v>-3.3949699999999998</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1787.6982777777785</v>
       </c>
       <c r="F105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52579361111111134</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>5358.2228535354507</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="7"/>
+        <v>5276.6808775201116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1040</v>
       </c>
@@ -2700,15 +3537,23 @@
         <v>-3.3947799999999999</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1778.2683333333341</v>
       </c>
       <c r="F106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5230200980392159</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106">
+        <f t="shared" si="5"/>
+        <v>5613.0621693109479</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="7"/>
+        <v>5177.320261437887</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1050</v>
       </c>
@@ -2722,15 +3567,23 @@
         <v>-3.3946700000000001</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1768.8386944444453</v>
       </c>
       <c r="F107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.52024667483660159</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107">
+        <f t="shared" si="5"/>
+        <v>4406.3733125652552</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="7"/>
+        <v>5105.2655323537429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1060</v>
       </c>
@@ -2744,15 +3597,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1759.4086111111119</v>
       </c>
       <c r="F108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51747312091503295</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>4835.9401709404692</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="7"/>
+        <v>5019.8077735530233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1070</v>
       </c>
@@ -2766,15 +3627,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1749.9790000000007</v>
       </c>
       <c r="F109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51469970588235314</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>4668.1243124304528</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="7"/>
+        <v>4970.6450803213029</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1080</v>
       </c>
@@ -2788,15 +3657,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1740.5490277777785</v>
       </c>
       <c r="F110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.51192618464052309</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110">
+        <f t="shared" si="5"/>
+        <v>4325.6753312953297</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="7"/>
+        <v>4738.6495971922368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1090</v>
       </c>
@@ -2810,15 +3687,23 @@
         <v>-3.3946800000000001</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1731.1193611111119</v>
       </c>
       <c r="F111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.50915275326797405</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111">
+        <f t="shared" si="5"/>
+        <v>4286.2121212117263</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="7"/>
+        <v>4590.3337969401764</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1100</v>
       </c>
@@ -2832,15 +3717,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1721.6892777777784</v>
       </c>
       <c r="F112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.50637919934640541</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112">
+        <f t="shared" si="5"/>
+        <v>4267.0060331828818</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="7"/>
+        <v>4400.6148148149223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1110</v>
       </c>
@@ -2854,15 +3747,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1712.2591111111117</v>
       </c>
       <c r="F113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.5036056209150328</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113">
+        <f t="shared" si="5"/>
+        <v>4100.0724637682142</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="7"/>
+        <v>4345.5818886694515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1120</v>
       </c>
@@ -2876,15 +3777,23 @@
         <v>-3.39473</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1702.8293055555562</v>
       </c>
       <c r="F114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.50083214869281067</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114">
+        <f t="shared" si="5"/>
+        <v>4047.1268478776115</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="7"/>
+        <v>4228.644387500869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1130</v>
       </c>
@@ -2898,15 +3807,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1693.3994722222228</v>
       </c>
       <c r="F115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49805866830065376</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115">
+        <f t="shared" si="5"/>
+        <v>3978.8326300984936</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="7"/>
+        <v>4094.8735180590343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1140</v>
       </c>
@@ -2920,15 +3837,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1683.9696388888894</v>
       </c>
       <c r="F116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.4952851879084969</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116">
+        <f t="shared" si="5"/>
+        <v>3727.2068511196953</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="7"/>
+        <v>4044.7048611110363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1150</v>
       </c>
@@ -2942,15 +3867,23 @@
         <v>-3.3948700000000001</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1674.5394444444451</v>
       </c>
       <c r="F117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49251160130718974</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117">
+        <f t="shared" si="5"/>
+        <v>3962.2665732958835</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="7"/>
+        <v>3873.8116197182817</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1160</v>
       </c>
@@ -2964,15 +3897,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1665.1096111111117</v>
       </c>
       <c r="F118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48973812091503283</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118">
+        <f t="shared" si="5"/>
+        <v>3229.3949771689227</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="7"/>
+        <v>3804.559718219672</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1170</v>
       </c>
@@ -2986,15 +3927,23 @@
         <v>-3.3946000000000001</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1655.6801666666672</v>
       </c>
       <c r="F119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48696475490196095</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119">
+        <f t="shared" si="5"/>
+        <v>3741.8430335102544</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="7"/>
+        <v>3700.0342551071094</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1180</v>
       </c>
@@ -3008,15 +3957,23 @@
         <v>-3.3946800000000001</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1646.2505000000006</v>
       </c>
       <c r="F120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48419132352941191</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120">
+        <f t="shared" si="5"/>
+        <v>3379.8088410990772</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="7"/>
+        <v>3591.3145327046163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1190</v>
       </c>
@@ -3030,15 +3987,23 @@
         <v>-3.3946399999999999</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1636.8209444444451</v>
       </c>
       <c r="F121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.48141792483660151</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121">
+        <f t="shared" si="5"/>
+        <v>3285.5594270226338</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="7"/>
+        <v>3499.9307764816608</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1200</v>
       </c>
@@ -3052,15 +4017,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1627.3907777777783</v>
       </c>
       <c r="F122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.4786443464052289</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122">
+        <f t="shared" si="5"/>
+        <v>3308.8304093567372</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="7"/>
+        <v>3465.0131233595735</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1210</v>
       </c>
@@ -3074,15 +4047,23 @@
         <v>-3.3946700000000001</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1617.9611388888895</v>
       </c>
       <c r="F123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47587092320261459</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123">
+        <f t="shared" si="5"/>
+        <v>3466.7790032678713</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="7"/>
+        <v>3362.5955170657471</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1220</v>
       </c>
@@ -3096,15 +4077,23 @@
         <v>-3.3946000000000001</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1608.5316944444451</v>
       </c>
       <c r="F124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47309755718954266</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124">
+        <f t="shared" si="5"/>
+        <v>3185.6231231232919</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="7"/>
+        <v>3405.9884187593234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1230</v>
       </c>
@@ -3118,15 +4107,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1599.1015555555562</v>
       </c>
       <c r="F125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47032398692810473</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125">
+        <f t="shared" si="5"/>
+        <v>3531.8872243027326</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="7"/>
+        <v>3360.9357320660251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1240</v>
       </c>
@@ -3140,15 +4137,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1589.6713888888894</v>
       </c>
       <c r="F126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.46755040849673218</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126">
+        <f t="shared" si="5"/>
+        <v>3392.1462829736506</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="7"/>
+        <v>3371.2248893428869</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1250</v>
       </c>
@@ -3162,15 +4167,23 @@
         <v>-3.3946100000000001</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1580.2419166666671</v>
       </c>
       <c r="F127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.46477703431372563</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127">
+        <f t="shared" si="5"/>
+        <v>3454.0191290195771</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="7"/>
+        <v>3337.1404898326346</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1260</v>
       </c>
@@ -3184,15 +4197,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1570.8123055555559</v>
       </c>
       <c r="F128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.46200361928104583</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G128">
+        <f t="shared" si="5"/>
+        <v>3071.5345638797321</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="7"/>
+        <v>3335.440177418463</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1270</v>
       </c>
@@ -3206,15 +4227,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1561.382416666667</v>
       </c>
       <c r="F129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.45923012254901974</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G129">
+        <f t="shared" si="5"/>
+        <v>3297.1639471638373</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="7"/>
+        <v>3312.0296036126533</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1280</v>
       </c>
@@ -3228,15 +4257,23 @@
         <v>-3.3948100000000001</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1551.9523888888893</v>
       </c>
       <c r="F130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.45645658496732039</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130">
+        <f t="shared" si="5"/>
+        <v>3297.2125097123835</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="7"/>
+        <v>3327.0371303763741</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1290</v>
       </c>
@@ -3250,15 +4287,23 @@
         <v>-3.3944800000000002</v>
       </c>
       <c r="E131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1542.5232777777783</v>
       </c>
       <c r="F131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.4536833169934642</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131">
+        <f t="shared" si="5"/>
+        <v>3285.4045683317195</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="7"/>
+        <v>3279.0749020257281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1300</v>
       </c>
@@ -3272,15 +4317,23 @@
         <v>-3.3946200000000002</v>
       </c>
       <c r="E132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1533.0937777777783</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F132:F195" si="4">E132/3400</f>
+        <f t="shared" ref="F132:F195" si="8">E132/3400</f>
         <v>0.45090993464052304</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <f t="shared" ref="G132:G195" si="9">(E132-E131)/(C132-C131)</f>
+        <v>3185.6418918915606</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="7"/>
+        <v>3270.9241823587872</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1310</v>
       </c>
@@ -3294,15 +4347,23 @@
         <v>-3.3946700000000001</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E196" si="5">E132+((10/3600)*D133*1000)</f>
+        <f t="shared" ref="E133:E196" si="10">E132+((10/3600)*D133*1000)</f>
         <v>1523.6641388888895</v>
       </c>
       <c r="F133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.44813651143790867</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133">
+        <f t="shared" si="9"/>
+        <v>3332.0278759325711</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="7"/>
+        <v>3223.0333116319202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1320</v>
       </c>
@@ -3316,15 +4377,23 @@
         <v>-3.3947799999999999</v>
       </c>
       <c r="E134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1514.2341944444452</v>
       </c>
       <c r="F134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.44536299836601329</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134">
+        <f t="shared" si="9"/>
+        <v>3112.1928859553668</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="7"/>
+        <v>3246.8205170246374</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1330</v>
       </c>
@@ -3338,15 +4407,23 @@
         <v>-3.3947099999999999</v>
       </c>
       <c r="E135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1504.8044444444452</v>
       </c>
       <c r="F135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.44258954248366034</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135">
+        <f t="shared" si="9"/>
+        <v>3229.3664383561313</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="7"/>
+        <v>3227.8035859820779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1340</v>
       </c>
@@ -3360,15 +4437,23 @@
         <v>-3.3950200000000001</v>
       </c>
       <c r="E136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1495.373833333334</v>
       </c>
       <c r="F136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.43981583333333352</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136">
+        <f t="shared" si="9"/>
+        <v>3164.6346010440279</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="7"/>
+        <v>3262.9208546163818</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1350</v>
       </c>
@@ -3382,15 +4467,23 @@
         <v>-3.3949199999999999</v>
       </c>
       <c r="E137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1485.9435000000008</v>
       </c>
       <c r="F137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.43704220588235315</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137">
+        <f t="shared" si="9"/>
+        <v>3572.0959595959562</v>
+      </c>
+      <c r="H137">
+        <f t="shared" ref="H137:H200" si="11">(E138-E131)/(C138-C131)</f>
+        <v>3251.7337164750456</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1360</v>
       </c>
@@ -3404,15 +4497,23 @@
         <v>-3.3949500000000001</v>
       </c>
       <c r="E138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1476.5130833333342</v>
       </c>
       <c r="F138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.43426855392156888</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138">
+        <f t="shared" si="9"/>
+        <v>3207.6247165530813</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="11"/>
+        <v>3261.3787329820116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1370</v>
       </c>
@@ -3426,15 +4527,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1467.083472222223</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.43149513888888913</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139">
+        <f t="shared" si="9"/>
+        <v>3251.5900383143062</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="11"/>
+        <v>3240.5784650630308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1380</v>
       </c>
@@ -3448,15 +4557,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1457.6535555555563</v>
       </c>
       <c r="F140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.42872163398692831</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <f t="shared" si="9"/>
+        <v>3185.7826576578332</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="11"/>
+        <v>3231.0586283787165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1390</v>
       </c>
@@ -3470,15 +4587,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1448.2236666666674</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.42594813725490221</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <f t="shared" si="9"/>
+        <v>3051.7439769864282</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="11"/>
+        <v>3290.6668882242216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1400</v>
       </c>
@@ -3492,15 +4617,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1438.7936666666674</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.42317460784313748</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142">
+        <f t="shared" si="9"/>
+        <v>3698.039215686546</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="11"/>
+        <v>3298.8450219334586</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1410</v>
       </c>
@@ -3514,15 +4647,23 @@
         <v>-3.3946999999999998</v>
       </c>
       <c r="E143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1429.3639444444452</v>
       </c>
       <c r="F143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.42040116013071921</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143">
+        <f t="shared" si="9"/>
+        <v>3218.3352294272472</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="11"/>
+        <v>3250.0943705891618</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1420</v>
       </c>
@@ -3536,15 +4677,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1419.934083333334</v>
       </c>
       <c r="F144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.41762767156862762</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144">
+        <f t="shared" si="9"/>
+        <v>3207.4357520784674</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="11"/>
+        <v>3292.2083679689963</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1430</v>
       </c>
@@ -3558,15 +4707,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1410.5043055555561</v>
       </c>
       <c r="F145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.41485420751634006</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145">
+        <f t="shared" si="9"/>
+        <v>3518.5737976785813</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="11"/>
+        <v>3307.0710866176564</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1440</v>
       </c>
@@ -3580,15 +4737,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1401.0743333333339</v>
       </c>
       <c r="F146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.41208068627451</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146">
+        <f t="shared" si="9"/>
+        <v>3355.8620007905797</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="11"/>
+        <v>3337.1966632962076</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1450</v>
       </c>
@@ -3602,15 +4767,23 @@
         <v>-3.39499</v>
       </c>
       <c r="E147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1391.6438055555561</v>
       </c>
       <c r="F147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.40930700163398709</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147">
+        <f t="shared" si="9"/>
+        <v>3392.2761790567561</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="11"/>
+        <v>3366.1227265000707</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1460</v>
       </c>
@@ -3624,15 +4797,23 @@
         <v>-3.39473</v>
       </c>
       <c r="E148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1382.2140000000006</v>
       </c>
       <c r="F148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.4065335294117649</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148">
+        <f t="shared" si="9"/>
+        <v>3229.3854642312995</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="11"/>
+        <v>3295.5414101070264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1470</v>
       </c>
@@ -3646,15 +4827,23 @@
         <v>-3.3948100000000001</v>
       </c>
       <c r="E149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1372.7839722222229</v>
       </c>
       <c r="F149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.40375999183006556</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149">
+        <f t="shared" si="9"/>
+        <v>3175.0935278713664</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="11"/>
+        <v>3338.8818636542728</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1480</v>
       </c>
@@ -3668,15 +4857,23 @@
         <v>-3.3946999999999998</v>
       </c>
       <c r="E150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1363.3542500000008</v>
       </c>
       <c r="F150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.40098654411764728</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150">
+        <f t="shared" si="9"/>
+        <v>3531.7311693719525</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="11"/>
+        <v>3322.0530671587403</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1490</v>
       </c>
@@ -3690,15 +4887,23 @@
         <v>-3.3945699999999999</v>
       </c>
       <c r="E151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1353.9248888888897</v>
       </c>
       <c r="F151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.39821320261437931</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151">
+        <f t="shared" si="9"/>
+        <v>3101.7635233914325</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="11"/>
+        <v>3240.5061910216141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1500</v>
       </c>
@@ -3712,15 +4917,23 @@
         <v>-3.3946900000000002</v>
       </c>
       <c r="E152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1344.4951944444451</v>
       </c>
       <c r="F152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.3954397630718956</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152">
+        <f t="shared" si="9"/>
+        <v>2965.312718378817</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="11"/>
+        <v>3266.1746110286235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1510</v>
       </c>
@@ -3734,15 +4947,23 @@
         <v>-3.3948900000000002</v>
       </c>
       <c r="E153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1335.0649444444452</v>
       </c>
       <c r="F153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.3926661601307192</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153">
+        <f t="shared" si="9"/>
+        <v>3558.5849056602797</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="11"/>
+        <v>3235.7529956426915</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1520</v>
       </c>
@@ -3756,15 +4977,23 @@
         <v>-3.3949799999999999</v>
       </c>
       <c r="E154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1325.6344444444453</v>
       </c>
       <c r="F154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.38989248366013096</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154">
+        <f t="shared" si="9"/>
+        <v>3175.2525252525929</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="11"/>
+        <v>3237.3453762737777</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1530</v>
       </c>
@@ -3778,15 +5007,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1316.2045277777786</v>
       </c>
       <c r="F155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.3871189787581702</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155">
+        <f t="shared" si="9"/>
+        <v>3240.5211912944387</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="11"/>
+        <v>3259.6982167352689</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1540</v>
       </c>
@@ -3800,15 +5037,23 @@
         <v>-3.3946000000000001</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1306.7750833333341</v>
       </c>
       <c r="F156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.38434561274509826</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156">
+        <f t="shared" si="9"/>
+        <v>3331.9591676483547</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="11"/>
+        <v>3232.5742735879712</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1550</v>
       </c>
@@ -3822,15 +5067,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1297.3450833333341</v>
       </c>
       <c r="F157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.38157208333333353</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157">
+        <f t="shared" si="9"/>
+        <v>3320.422535211344</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="11"/>
+        <v>3272.6794469234087</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1560</v>
       </c>
@@ -3844,15 +5097,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1287.9149444444452</v>
       </c>
       <c r="F158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37879851307189566</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158">
+        <f t="shared" si="9"/>
+        <v>3379.9780963758667</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="11"/>
+        <v>3335.5608893380495</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1570</v>
       </c>
@@ -3866,15 +5127,23 @@
         <v>-3.3949799999999999</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1278.4844444444452</v>
       </c>
       <c r="F159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37602483660130742</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159">
+        <f t="shared" si="9"/>
+        <v>3368.0357142855291</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="11"/>
+        <v>3298.8949969460359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1580</v>
       </c>
@@ -3888,15 +5157,23 @@
         <v>-3.3949400000000001</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1269.0540555555563</v>
       </c>
       <c r="F160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37325119281045771</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160">
+        <f t="shared" si="9"/>
+        <v>3285.8497870696592</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="11"/>
+        <v>3332.1737057603423</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1590</v>
       </c>
@@ -3910,15 +5187,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1259.6240833333341</v>
       </c>
       <c r="F161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.37047767156862765</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161">
+        <f t="shared" si="9"/>
+        <v>3404.3221018853469</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="11"/>
+        <v>3379.9496501109361</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1600</v>
       </c>
@@ -3932,15 +5217,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1250.1941111111119</v>
       </c>
       <c r="F162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.3677041503267976</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162">
+        <f t="shared" si="9"/>
+        <v>3585.5407689052981</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="11"/>
+        <v>3385.18091168094</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1610</v>
       </c>
@@ -3954,15 +5247,23 @@
         <v>-3.3948200000000002</v>
       </c>
       <c r="E163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1240.7640555555563</v>
       </c>
       <c r="F163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.36493060457516363</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163">
+        <f t="shared" si="9"/>
+        <v>3367.8769841273547</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="11"/>
+        <v>3388.6650125484584</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1620</v>
       </c>
@@ -3976,15 +5277,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1231.3338888888895</v>
       </c>
       <c r="F164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.36215702614379103</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164">
+        <f t="shared" si="9"/>
+        <v>3344.0307328602385</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="11"/>
+        <v>3357.6169888097716</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1630</v>
       </c>
@@ -3998,15 +5307,23 @@
         <v>-3.3946900000000002</v>
       </c>
       <c r="E165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1221.904194444445</v>
       </c>
       <c r="F165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.35938358660130737</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165">
+        <f t="shared" si="9"/>
+        <v>3174.9812944258533</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="11"/>
+        <v>3318.7587285627092</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1640</v>
       </c>
@@ -4020,15 +5337,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1212.4743333333338</v>
       </c>
       <c r="F166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.35661009803921584</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166">
+        <f t="shared" si="9"/>
+        <v>3112.1653832051616</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="11"/>
+        <v>3259.7325102880318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1650</v>
       </c>
@@ -4042,15 +5367,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1203.0444722222226</v>
       </c>
       <c r="F167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.35383660947712431</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167">
+        <f t="shared" si="9"/>
+        <v>2919.4616443066193</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="11"/>
+        <v>3196.576540220587</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1660</v>
       </c>
@@ -4064,15 +5397,23 @@
         <v>-3.3946900000000002</v>
       </c>
       <c r="E168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1193.614777777778</v>
       </c>
       <c r="F168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.3510631699346406</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168">
+        <f t="shared" si="9"/>
+        <v>2974.6670171750266</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="11"/>
+        <v>3143.2830687831079</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1670</v>
       </c>
@@ -4086,15 +5427,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1184.1851666666669</v>
       </c>
       <c r="F169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.34828975490196085</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169">
+        <f t="shared" si="9"/>
+        <v>3164.2990305742369</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="11"/>
+        <v>3119.4930161730872</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1680</v>
       </c>
@@ -4108,15 +5457,23 @@
         <v>-3.3946499999999999</v>
       </c>
       <c r="E170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1174.7555833333336</v>
       </c>
       <c r="F170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.34551634803921577</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170">
+        <f t="shared" si="9"/>
+        <v>3185.6700450451976</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="11"/>
+        <v>3055.9375000000373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1690</v>
       </c>
@@ -4130,15 +5487,23 @@
         <v>-3.3947799999999999</v>
       </c>
       <c r="E171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1165.3256388888892</v>
       </c>
       <c r="F171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.34274283496732033</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171">
+        <f t="shared" si="9"/>
+        <v>2892.6209952282907</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="11"/>
+        <v>2918.1427448669124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1700</v>
       </c>
@@ -4152,15 +5517,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1155.8958055555559</v>
       </c>
       <c r="F172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.33996935457516347</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172">
+        <f t="shared" si="9"/>
+        <v>2363.3667502088997</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="11"/>
+        <v>2887.5024302517722</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1710</v>
       </c>
@@ -4174,15 +5547,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1146.466027777778</v>
       </c>
       <c r="F173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.33719589052287585</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173">
+        <f t="shared" si="9"/>
+        <v>2883.724091063476</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="11"/>
+        <v>2873.6600880375531</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1720</v>
       </c>
@@ -4196,15 +5577,23 @@
         <v>-3.3946299999999998</v>
       </c>
       <c r="E174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1137.0365000000002</v>
       </c>
       <c r="F174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.33442250000000007</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174">
+        <f t="shared" si="9"/>
+        <v>2823.2119095142157</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="11"/>
+        <v>2856.275542093374</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1730</v>
       </c>
@@ -4218,15 +5607,23 @@
         <v>-3.3948900000000002</v>
       </c>
       <c r="E175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1127.6062500000003</v>
       </c>
       <c r="F175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.33164889705882361</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175">
+        <f t="shared" si="9"/>
+        <v>2849.0181268882488</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="11"/>
+        <v>2767.6682972280505</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1740</v>
       </c>
@@ -4240,15 +5637,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1118.1762777777781</v>
       </c>
       <c r="F176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.32887537581699355</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176">
+        <f t="shared" si="9"/>
+        <v>2534.938769414608</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="11"/>
+        <v>2693.1547214288667</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1750</v>
       </c>
@@ -4262,15 +5667,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1108.7463611111114</v>
       </c>
       <c r="F177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.32610187091503273</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177">
+        <f t="shared" si="9"/>
+        <v>2604.949355432665</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="11"/>
+        <v>2732.1766924208778</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1760</v>
       </c>
@@ -4284,15 +5697,23 @@
         <v>-3.3948399999999999</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1099.3162500000003</v>
       </c>
       <c r="F178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.32332830882352948</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178">
+        <f t="shared" si="9"/>
+        <v>3240.5880106911163</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="11"/>
+        <v>2839.1135005973733</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1770</v>
       </c>
@@ -4306,15 +5727,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1089.8864166666669</v>
       </c>
       <c r="F179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.32055482843137262</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179">
+        <f t="shared" si="9"/>
+        <v>3061.6341991344575</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="11"/>
+        <v>2897.7197346600269</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1780</v>
       </c>
@@ -4328,15 +5757,23 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1080.4559722222225</v>
       </c>
       <c r="F180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.31778116830065367</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180">
+        <f t="shared" si="9"/>
+        <v>3368.0158730157109</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="11"/>
+        <v>2997.7507821172671</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1790</v>
       </c>
@@ -4350,15 +5787,23 @@
         <v>-3.3947799999999999</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1071.0260277777782</v>
       </c>
       <c r="F181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.31500765522875829</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181">
+        <f t="shared" si="9"/>
+        <v>3655.0172265287783</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="11"/>
+        <v>3091.8188914910174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1800</v>
       </c>
@@ -4372,15 +5817,23 @@
         <v>-3.3948399999999999</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1061.5959166666671</v>
       </c>
       <c r="F182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.31223409313725503</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182">
+        <f t="shared" si="9"/>
+        <v>3572.0117845117925</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="11"/>
+        <v>3258.1770319183979</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1810</v>
       </c>
@@ -4394,15 +5847,23 @@
         <v>-3.3949099999999999</v>
       </c>
       <c r="E183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1052.1656111111115</v>
       </c>
       <c r="F183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30946047385620928</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183">
+        <f t="shared" si="9"/>
+        <v>3585.6675116182237</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="11"/>
+        <v>3409.6605257116844</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1820</v>
       </c>
@@ -4416,15 +5877,23 @@
         <v>-3.3948999999999998</v>
       </c>
       <c r="E184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1042.7353333333338</v>
       </c>
       <c r="F184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30668686274509815</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184">
+        <f t="shared" si="9"/>
+        <v>3467.0138888888064</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="11"/>
+        <v>3459.68291404616</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1830</v>
       </c>
@@ -4438,15 +5907,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1033.3055000000004</v>
       </c>
       <c r="F185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.3039133823529413</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185">
+        <f t="shared" si="9"/>
+        <v>3585.4879594424656</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="11"/>
+        <v>3543.2620623844541</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1840</v>
       </c>
@@ -4460,15 +5937,23 @@
         <v>-3.3948200000000002</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1023.8754444444448</v>
       </c>
       <c r="F186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30113983660130733</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186">
+        <f t="shared" si="9"/>
+        <v>3585.5724545839835</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="11"/>
+        <v>3564.2713582913116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1850</v>
       </c>
@@ -4482,15 +5967,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1014.4456666666671</v>
       </c>
       <c r="F187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.29836637254901971</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G187">
+        <f t="shared" si="9"/>
+        <v>3505.493597686504</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="11"/>
+        <v>3529.9628639334624</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1860</v>
       </c>
@@ -4504,15 +5997,23 @@
         <v>-3.3947799999999999</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1005.0157222222226</v>
       </c>
       <c r="F188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.29559285947712433</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188">
+        <f t="shared" si="9"/>
+        <v>3416.6465378423518</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="11"/>
+        <v>3520.5392592592975</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1870</v>
       </c>
@@ -4526,15 +6027,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>995.58580555555591</v>
       </c>
       <c r="F189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.2928193545751635</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189">
+        <f t="shared" si="9"/>
+        <v>3505.5452292443147</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="11"/>
+        <v>3533.7214489649818</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1880</v>
       </c>
@@ -4548,15 +6057,23 @@
         <v>-3.3948399999999999</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>986.15569444444475</v>
       </c>
       <c r="F190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.29004579248366025</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190">
+        <f t="shared" si="9"/>
+        <v>3683.6371527773076</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="11"/>
+        <v>3494.3959178872151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1890</v>
       </c>
@@ -4570,15 +6087,23 @@
         <v>-3.3946200000000002</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>976.72619444444479</v>
       </c>
       <c r="F191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.28727241013071908</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G191">
+        <f t="shared" si="9"/>
+        <v>3218.259385665895</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="11"/>
+        <v>3481.5268987341233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1900</v>
       </c>
@@ -4592,15 +6117,23 @@
         <v>-3.3949600000000002</v>
       </c>
       <c r="E192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>967.29575000000034</v>
       </c>
       <c r="F192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.28449875000000008</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192">
+        <f t="shared" si="9"/>
+        <v>3492.7572016456143</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="11"/>
+        <v>3414.8962464792685</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1910</v>
       </c>
@@ -4614,15 +6147,23 @@
         <v>-3.3948900000000002</v>
       </c>
       <c r="E193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>957.86550000000034</v>
       </c>
       <c r="F193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.28172514705882362</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193">
+        <f t="shared" si="9"/>
+        <v>3143.416666667013</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="11"/>
+        <v>3400.8257484687715</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1920</v>
       </c>
@@ -4636,15 +6177,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>948.43563888888923</v>
       </c>
       <c r="F194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.27895165849673215</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194">
+        <f t="shared" si="9"/>
+        <v>3404.2819895708722</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="11"/>
+        <v>3423.7407791608753</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1930</v>
       </c>
@@ -4658,15 +6207,23 @@
         <v>-3.3946700000000001</v>
       </c>
       <c r="E195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>939.00600000000031</v>
       </c>
       <c r="F195">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.27617823529411772</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195">
+        <f t="shared" si="9"/>
+        <v>3585.4140261930215</v>
+      </c>
+      <c r="H195">
+        <f t="shared" si="11"/>
+        <v>3418.4072731456863</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1940</v>
       </c>
@@ -4680,15 +6237,23 @@
         <v>-3.3946700000000001</v>
       </c>
       <c r="E196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>929.5763611111114</v>
       </c>
       <c r="F196">
-        <f t="shared" ref="F196:F259" si="6">E196/3400</f>
+        <f t="shared" ref="F196:F259" si="12">E196/3400</f>
         <v>0.27340481209150336</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196">
+        <f t="shared" ref="G196:G259" si="13">(E196-E195)/(C196-C195)</f>
+        <v>3466.7790032679131</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="11"/>
+        <v>3404.2891524840975</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1950</v>
       </c>
@@ -4702,15 +6267,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E197">
-        <f t="shared" ref="E197:E260" si="7">E196+((10/3600)*D197*1000)</f>
+        <f t="shared" ref="E197:E260" si="14">E196+((10/3600)*D197*1000)</f>
         <v>920.14652777777803</v>
       </c>
       <c r="F197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.2706313316993465</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197">
+        <f t="shared" si="13"/>
+        <v>3571.9065656566099</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="11"/>
+        <v>3441.5623913799168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1960</v>
       </c>
@@ -4724,15 +6297,23 @@
         <v>-3.3946200000000002</v>
       </c>
       <c r="E198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>910.71702777777807</v>
       </c>
       <c r="F198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.26785794934640533</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198">
+        <f t="shared" si="13"/>
+        <v>3466.7279411769514</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="11"/>
+        <v>3470.5164154691356</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1970</v>
       </c>
@@ -4746,15 +6327,23 @@
         <v>-3.3949799999999999</v>
       </c>
       <c r="E199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>901.28652777777802</v>
       </c>
       <c r="F199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.26508427287581704</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199">
+        <f t="shared" si="13"/>
+        <v>3712.7952755902666</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="11"/>
+        <v>3558.4666067684411</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1980</v>
       </c>
@@ -4768,15 +6357,23 @@
         <v>-3.3950100000000001</v>
       </c>
       <c r="E200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>891.85594444444473</v>
       </c>
       <c r="F200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.26231057189542489</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200">
+        <f t="shared" si="13"/>
+        <v>3727.5032938074128</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="11"/>
+        <v>3529.9242424241711</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1990</v>
       </c>
@@ -4790,15 +6387,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>882.42605555555588</v>
       </c>
       <c r="F201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.2595370751633988</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G201">
+        <f t="shared" si="13"/>
+        <v>3229.4140030440908</v>
+      </c>
+      <c r="H201">
+        <f t="shared" ref="H201:H264" si="15">(E202-E195)/(C202-C195)</f>
+        <v>3454.1877434734633</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2000</v>
       </c>
@@ -4812,15 +6417,23 @@
         <v>-3.3946499999999999</v>
       </c>
       <c r="E202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>872.99647222222256</v>
       </c>
       <c r="F202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.25676366830065367</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G202">
+        <f t="shared" si="13"/>
+        <v>3101.8366228070804</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="15"/>
+        <v>3407.8299776286512</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2010</v>
       </c>
@@ -4834,15 +6447,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>863.56669444444481</v>
       </c>
       <c r="F203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.2539902042483661</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G203">
+        <f t="shared" si="13"/>
+        <v>3164.3549589858435</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="15"/>
+        <v>3416.6580400275966</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2020</v>
       </c>
@@ -4856,15 +6477,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>854.13669444444486</v>
       </c>
       <c r="F204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.25121667483660143</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G204">
+        <f t="shared" si="13"/>
+        <v>3640.9266409264919</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="15"/>
+        <v>3322.1187720181019</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2030</v>
       </c>
@@ -4878,15 +6507,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>844.70652777777821</v>
       </c>
       <c r="F205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.24844309640522888</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G205">
+        <f t="shared" si="13"/>
+        <v>2883.8430173295492</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="15"/>
+        <v>3347.3518142889302</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2040</v>
       </c>
@@ -4900,15 +6537,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>835.27675000000045</v>
       </c>
       <c r="F206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.24566963235294131</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G206">
+        <f t="shared" si="13"/>
+        <v>3945.5137145511749</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="15"/>
+        <v>3328.7345212080704</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2050</v>
       </c>
@@ -4922,15 +6567,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>825.84713888888939</v>
       </c>
       <c r="F207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.24289621732026159</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G207">
+        <f t="shared" si="13"/>
+        <v>3571.822390572403</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="15"/>
+        <v>3390.288478000391</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>2060</v>
       </c>
@@ -4944,15 +6597,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>816.41713888888944</v>
       </c>
       <c r="F208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.24012268790849689</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G208">
+        <f t="shared" si="13"/>
+        <v>3683.5937500001305</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="15"/>
+        <v>3472.3478870770091</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>2070</v>
       </c>
@@ -4966,15 +6627,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>806.98713888888949</v>
       </c>
       <c r="F209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.23734915849673222</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G209">
+        <f t="shared" si="13"/>
+        <v>3655.0387596898654</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="15"/>
+        <v>3562.3148647838771</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2080</v>
       </c>
@@ -4988,15 +6657,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>797.55700000000058</v>
       </c>
       <c r="F210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.23457558823529429</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G210">
+        <f t="shared" si="13"/>
+        <v>3772.0555555556425</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="15"/>
+        <v>3579.6893829838386</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2090</v>
       </c>
@@ -5010,15 +6687,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>788.12722222222283</v>
       </c>
       <c r="F211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.23180212418300672</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G211">
+        <f t="shared" si="13"/>
+        <v>3771.9111111105135</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="15"/>
+        <v>3712.5374953130458</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2100</v>
       </c>
@@ -5032,15 +6717,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>778.69761111111177</v>
       </c>
       <c r="F212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.229028709150327</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G212">
+        <f t="shared" si="13"/>
+        <v>3612.8778203493698</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="15"/>
+        <v>3611.0032214928428</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2110</v>
       </c>
@@ -5054,15 +6747,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>769.26761111111182</v>
       </c>
       <c r="F213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.2262551797385623</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G213">
+        <f t="shared" si="13"/>
+        <v>3262.9757785468792</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="15"/>
+        <v>3591.3628944504685</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2120</v>
       </c>
@@ -5076,15 +6777,23 @@
         <v>-3.3946999999999998</v>
       </c>
       <c r="E214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>759.83788888888955</v>
       </c>
       <c r="F214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.22348173202614399</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G214">
+        <f t="shared" si="13"/>
+        <v>3441.5044606648266</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="15"/>
+        <v>3552.6970458079036</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2130</v>
       </c>
@@ -5098,15 +6807,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>750.40802777777844</v>
       </c>
       <c r="F215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.22070824346405249</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G215">
+        <f t="shared" si="13"/>
+        <v>3416.6163446056307</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="15"/>
+        <v>3535.5353210735811</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2140</v>
       </c>
@@ -5120,15 +6837,23 @@
         <v>-3.3945599999999998</v>
       </c>
       <c r="E216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>740.97869444444507</v>
       </c>
       <c r="F216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.21793491013071914</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G216">
+        <f t="shared" si="13"/>
+        <v>3531.5855181021598</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="15"/>
+        <v>3470.4799041943675</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2150</v>
       </c>
@@ -5142,15 +6867,23 @@
         <v>-3.3948800000000001</v>
       </c>
       <c r="E217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>731.54847222222281</v>
       </c>
       <c r="F217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.2151613153594773</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G217">
+        <f t="shared" si="13"/>
+        <v>3308.8499025341025</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="15"/>
+        <v>3448.7388250319837</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2160</v>
       </c>
@@ -5164,15 +6897,23 @@
         <v>-3.3948399999999999</v>
       </c>
       <c r="E218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>722.11836111111165</v>
       </c>
       <c r="F218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.21238775326797402</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G218">
+        <f t="shared" si="13"/>
+        <v>3599.2790500426408</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="15"/>
+        <v>3420.1741508348036</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2170</v>
       </c>
@@ -5186,15 +6927,23 @@
         <v>-3.3948399999999999</v>
       </c>
       <c r="E219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>712.68825000000049</v>
       </c>
       <c r="F219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.20961419117647073</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G219">
+        <f t="shared" si="13"/>
+        <v>3404.3722422784717</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="15"/>
+        <v>3474.1783625730891</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2180</v>
       </c>
@@ -5208,15 +6957,23 @@
         <v>-3.3948100000000001</v>
       </c>
       <c r="E220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>703.25822222222268</v>
       </c>
       <c r="F220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.20684065359477138</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G220">
+        <f t="shared" si="13"/>
+        <v>3640.9373659372486</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="15"/>
+        <v>3474.2061403508642</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2190</v>
       </c>
@@ -5230,15 +6987,23 @@
         <v>-3.3948900000000002</v>
       </c>
       <c r="E221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>693.82797222222268</v>
       </c>
       <c r="F221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.2040670506535949</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G221">
+        <f t="shared" si="13"/>
+        <v>3441.6970802917367</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="15"/>
+        <v>3476.0136914165355</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2200</v>
       </c>
@@ -5252,15 +7017,23 @@
         <v>-3.3946000000000001</v>
       </c>
       <c r="E222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>684.39852777777821</v>
       </c>
       <c r="F222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.201293684640523</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G222">
+        <f t="shared" si="13"/>
+        <v>3428.8888888891374</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="15"/>
+        <v>3450.6185746645683</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2210</v>
       </c>
@@ -5274,15 +7047,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>674.96836111111156</v>
       </c>
       <c r="F223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.19852010620915045</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G223">
+        <f t="shared" si="13"/>
+        <v>3355.9311981017704</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="15"/>
+        <v>3494.4665019705062</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2220</v>
       </c>
@@ -5296,15 +7077,23 @@
         <v>-3.39493</v>
       </c>
       <c r="E224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>665.53800000000047</v>
       </c>
       <c r="F224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.19574647058823544</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G224">
+        <f t="shared" si="13"/>
+        <v>3613.1651766712239</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="15"/>
+        <v>3362.7200430180173</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2230</v>
       </c>
@@ -5318,15 +7107,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>656.1081666666671</v>
       </c>
       <c r="F225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.19297299019607855</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G225">
+        <f t="shared" si="13"/>
+        <v>2806.4980158728144</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="15"/>
+        <v>3328.7681403036545</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2240</v>
       </c>
@@ -5340,15 +7137,23 @@
         <v>-3.3945799999999999</v>
       </c>
       <c r="E226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>646.67877777777824</v>
       </c>
       <c r="F226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.19019964052287594</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G226">
+        <f t="shared" si="13"/>
+        <v>3174.8784137673833</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="15"/>
+        <v>3235.7666122004375</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2250</v>
       </c>
@@ -5362,15 +7167,23 @@
         <v>-3.3948700000000001</v>
       </c>
       <c r="E227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>637.24858333333384</v>
       </c>
       <c r="F227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.18742605392156877</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G227">
+        <f t="shared" si="13"/>
+        <v>2984.2387482420586</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="15"/>
+        <v>3162.8826598519991</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2260</v>
       </c>
@@ -5384,15 +7197,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>627.81861111111164</v>
       </c>
       <c r="F228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.18465253267973872</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G228">
+        <f t="shared" si="13"/>
+        <v>2937.6860505363684</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="15"/>
+        <v>3068.8000413244235</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2270</v>
       </c>
@@ -5406,15 +7227,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>618.38863888888943</v>
       </c>
       <c r="F229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.18187901143790866</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G229">
+        <f t="shared" si="13"/>
+        <v>2781.702720419526</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="15"/>
+        <v>2973.4034034034307</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2280</v>
       </c>
@@ -5428,15 +7257,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>608.95880555555607</v>
       </c>
       <c r="F230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.17910553104575178</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G230">
+        <f t="shared" si="13"/>
+        <v>2694.2380952382296</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="15"/>
+        <v>2872.4313412629317</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2290</v>
       </c>
@@ -5450,15 +7287,23 @@
         <v>-3.3945400000000001</v>
       </c>
       <c r="E231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>599.5295277777783</v>
       </c>
       <c r="F231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.17633221405228774</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G231">
+        <f t="shared" si="13"/>
+        <v>2781.4978695509612</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="15"/>
+        <v>2867.4377353026534</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2300</v>
       </c>
@@ -5472,15 +7317,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>590.09975000000054</v>
       </c>
       <c r="F232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.17355875000000015</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G232">
+        <f t="shared" si="13"/>
+        <v>2773.4640522875193</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="15"/>
+        <v>2781.6652619749884</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2310</v>
       </c>
@@ -5494,15 +7347,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>580.66986111111169</v>
       </c>
       <c r="F233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.17078525326797403</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G233">
+        <f t="shared" si="13"/>
+        <v>2562.4698067631866</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="15"/>
+        <v>2749.2156046091786</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2320</v>
       </c>
@@ -5516,15 +7377,23 @@
         <v>-3.3947799999999999</v>
       </c>
       <c r="E234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>571.23991666666723</v>
       </c>
       <c r="F234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.16801174019607859</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G234">
+        <f t="shared" si="13"/>
+        <v>2741.2629198967347</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="15"/>
+        <v>2693.1365882406453</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2330</v>
       </c>
@@ -5538,15 +7407,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>561.80983333333393</v>
       </c>
       <c r="F235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.16523818627450998</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G235">
+        <f t="shared" si="13"/>
+        <v>2541.8014375562279</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="15"/>
+        <v>2647.7648526986754</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2340</v>
       </c>
@@ -5560,15 +7437,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>552.37986111111172</v>
       </c>
       <c r="F236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.16246466503267992</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G236">
+        <f t="shared" si="13"/>
+        <v>2475.0583260425142</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="15"/>
+        <v>2612.1334036846561</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2350</v>
       </c>
@@ -5582,15 +7467,23 @@
         <v>-3.3946800000000001</v>
       </c>
       <c r="E237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>542.95019444444506</v>
       </c>
       <c r="F237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.15969123366013091</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G237">
+        <f t="shared" si="13"/>
+        <v>2455.64236111121</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="15"/>
+        <v>2552.5650940963897</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>2360</v>
       </c>
@@ -5604,15 +7497,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>533.52019444444511</v>
       </c>
       <c r="F238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.15691770424836621</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G238">
+        <f t="shared" si="13"/>
+        <v>2369.3467336681406</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="15"/>
+        <v>2508.9140166392053</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>2370</v>
       </c>
@@ -5626,15 +7527,23 @@
         <v>-3.39479</v>
       </c>
       <c r="E239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>524.09022222222291</v>
       </c>
       <c r="F239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.15414418300653615</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G239">
+        <f t="shared" si="13"/>
+        <v>2449.3434343434874</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="15"/>
+        <v>2463.038971807649</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2380</v>
       </c>
@@ -5648,15 +7557,23 @@
         <v>-3.39473</v>
       </c>
       <c r="E240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>514.6604166666674</v>
       </c>
       <c r="F240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.15137071078431394</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G240">
+        <f t="shared" si="13"/>
+        <v>2261.3442579270959</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="15"/>
+        <v>2396.8651658193967</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>2390</v>
       </c>
@@ -5670,15 +7587,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>505.23025000000075</v>
       </c>
       <c r="F241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.14859713235294139</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G241">
+        <f t="shared" si="13"/>
+        <v>2256.0207336521498</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="15"/>
+        <v>2360.8508186297659</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2400</v>
       </c>
@@ -5692,15 +7617,23 @@
         <v>-3.39473</v>
       </c>
       <c r="E242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>495.80044444444519</v>
       </c>
       <c r="F242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.14582366013071918</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G242">
+        <f t="shared" si="13"/>
+        <v>2283.2458972289674</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="15"/>
+        <v>2340.7476359338011</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2410</v>
       </c>
@@ -5714,15 +7647,23 @@
         <v>-3.3946800000000001</v>
       </c>
       <c r="E243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>486.37077777777853</v>
       </c>
       <c r="F243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.14305022875817017</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G243">
+        <f t="shared" si="13"/>
+        <v>2328.3127572017102</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="15"/>
+        <v>2305.6050374509859</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>2420</v>
       </c>
@@ -5736,15 +7677,23 @@
         <v>-3.3948200000000002</v>
       </c>
       <c r="E244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>476.94072222222297</v>
       </c>
       <c r="F244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.14027668300653617</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G244">
+        <f t="shared" si="13"/>
+        <v>2208.4439240176962</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="15"/>
+        <v>2244.452944954478</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>2430</v>
       </c>
@@ -5758,15 +7707,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>467.51083333333406</v>
       </c>
       <c r="F245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.13750318627451003</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G245">
+        <f t="shared" si="13"/>
+        <v>1981.0690943043526</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="15"/>
+        <v>2192.2801579393995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2440</v>
       </c>
@@ -5780,15 +7737,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>458.08066666666741</v>
       </c>
       <c r="F246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.13472960784313748</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G246">
+        <f t="shared" si="13"/>
+        <v>2072.5641025640743</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="15"/>
+        <v>2157.178649237459</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2450</v>
       </c>
@@ -5802,15 +7767,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>448.65075000000076</v>
       </c>
       <c r="F247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.13195610294117668</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G247">
+        <f t="shared" si="13"/>
+        <v>2023.5872675250828</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="15"/>
+        <v>2117.0354928372894</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2460</v>
       </c>
@@ -5824,15 +7797,23 @@
         <v>-3.3946800000000001</v>
       </c>
       <c r="E248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>439.22108333333409</v>
       </c>
       <c r="F248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.12918267156862767</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G248">
+        <f t="shared" si="13"/>
+        <v>1981.022408963544</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="15"/>
+        <v>2069.2389411355048</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>2470</v>
       </c>
@@ -5846,15 +7827,23 @@
         <v>-3.3945699999999999</v>
       </c>
       <c r="E249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>429.79172222222297</v>
       </c>
       <c r="F249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.1264093300653597</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G249">
+        <f t="shared" si="13"/>
+        <v>1944.1981672394868</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="15"/>
+        <v>2027.9091995220972</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2480</v>
       </c>
@@ -5868,15 +7857,23 @@
         <v>-3.3945799999999999</v>
       </c>
       <c r="E250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>420.36233333333411</v>
       </c>
       <c r="F250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.12363598039215709</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G250">
+        <f t="shared" si="13"/>
+        <v>2006.2529550826741</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="15"/>
+        <v>1975.1188576368106</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2490</v>
       </c>
@@ -5890,15 +7887,23 @@
         <v>-3.3948299999999998</v>
       </c>
       <c r="E251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>410.93225000000075</v>
       </c>
       <c r="F251">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.12086242647058845</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G251">
+        <f t="shared" si="13"/>
+        <v>1834.64656290535</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="15"/>
+        <v>1970.9905112637261</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2500</v>
       </c>
@@ -5912,15 +7917,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>401.50236111111184</v>
       </c>
       <c r="F252">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.1180889297385623</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G252">
+        <f t="shared" si="13"/>
+        <v>1952.3579480100811</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="15"/>
+        <v>1950.0287214836862</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2510</v>
       </c>
@@ -5934,15 +7947,23 @@
         <v>-3.39486</v>
       </c>
       <c r="E253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>392.07219444444519</v>
       </c>
       <c r="F253">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.11531535130718976</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G253">
+        <f t="shared" si="13"/>
+        <v>1920.6042090971762</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="15"/>
+        <v>1914.9510040937496</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>2520</v>
       </c>
@@ -5956,15 +7977,23 @@
         <v>-3.39473</v>
       </c>
       <c r="E254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>382.64238888888963</v>
       </c>
       <c r="F254">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.11254187908496754</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G254">
+        <f t="shared" si="13"/>
+        <v>1785.9480218855392</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="15"/>
+        <v>1885.9595238095412</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>2530</v>
       </c>
@@ -5978,15 +8007,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>373.21250000000072</v>
       </c>
       <c r="F255">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.10976838235294138</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G255">
+        <f t="shared" si="13"/>
+        <v>1782.5876916614141</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="15"/>
+        <v>1855.2346824058491</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2540</v>
       </c>
@@ -6000,15 +8037,23 @@
         <v>-3.3948100000000001</v>
       </c>
       <c r="E256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>363.78247222222296</v>
       </c>
       <c r="F256">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.10699484477124205</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G256">
+        <f t="shared" si="13"/>
+        <v>1736.6533660732362</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="15"/>
+        <v>1814.4546759513855</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2550</v>
       </c>
@@ -6022,15 +8067,23 @@
         <v>-3.3948</v>
       </c>
       <c r="E257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>354.35247222222296</v>
       </c>
       <c r="F257">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.10422131535947735</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G257">
+        <f t="shared" si="13"/>
+        <v>1714.545454545437</v>
+      </c>
+      <c r="H257">
+        <f t="shared" si="15"/>
+        <v>1789.349718381972</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2560</v>
       </c>
@@ -6044,15 +8097,23 @@
         <v>-3.3945599999999998</v>
       </c>
       <c r="E258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>344.92313888888964</v>
       </c>
       <c r="F258">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.10144798202614401</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G258">
+        <f t="shared" si="13"/>
+        <v>1668.908554572223</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="15"/>
+        <v>1755.5481678487054</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2570</v>
       </c>
@@ -6066,15 +8127,23 @@
         <v>-3.3945799999999999</v>
       </c>
       <c r="E259">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>335.49375000000077</v>
       </c>
       <c r="F259">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.867463235294141E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G259">
+        <f t="shared" si="13"/>
+        <v>1702.0557561171611</v>
+      </c>
+      <c r="H259">
+        <f t="shared" si="15"/>
+        <v>1705.633074935402</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2580</v>
       </c>
@@ -6088,15 +8157,23 @@
         <v>-3.3946399999999999</v>
       </c>
       <c r="E260">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>326.06419444444521</v>
       </c>
       <c r="F260">
-        <f t="shared" ref="F260:F295" si="8">E260/3400</f>
+        <f t="shared" ref="F260:F295" si="16">E260/3400</f>
         <v>9.5901233660130938E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G260">
+        <f t="shared" ref="G260:G295" si="17">(E260-E259)/(C260-C259)</f>
+        <v>1568.9776298761738</v>
+      </c>
+      <c r="H260">
+        <f t="shared" si="15"/>
+        <v>1682.1624759315719</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2590</v>
       </c>
@@ -6110,15 +8187,23 @@
         <v>-3.3947500000000002</v>
       </c>
       <c r="E261">
-        <f t="shared" ref="E261:E295" si="9">E260+((10/3600)*D261*1000)</f>
+        <f t="shared" ref="E261:E295" si="18">E260+((10/3600)*D261*1000)</f>
         <v>316.6343333333341</v>
       </c>
       <c r="F261">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.3127745098039436E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G261">
+        <f t="shared" si="17"/>
+        <v>1620.2510500189849</v>
+      </c>
+      <c r="H261">
+        <f t="shared" si="15"/>
+        <v>1655.1529588766225</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>2600</v>
       </c>
@@ -6132,15 +8217,23 @@
         <v>-3.3945599999999998</v>
       </c>
       <c r="E262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>307.20500000000078</v>
       </c>
       <c r="F262">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.0354411764706113E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G262">
+        <f t="shared" si="17"/>
+        <v>1590.1068015739772</v>
+      </c>
+      <c r="H262">
+        <f t="shared" si="15"/>
+        <v>1632.6394041828044</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>2610</v>
       </c>
@@ -6154,15 +8247,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>297.77486111111187</v>
       </c>
       <c r="F263">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8.7580841503268198E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G263">
+        <f t="shared" si="17"/>
+        <v>1576.946302489758</v>
+      </c>
+      <c r="H263">
+        <f t="shared" si="15"/>
+        <v>1624.998632310296</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2620</v>
       </c>
@@ -6176,15 +8277,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>288.34502777777857</v>
       </c>
       <c r="F264">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8.480736111111134E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G264">
+        <f t="shared" si="17"/>
+        <v>1657.2642062097277</v>
+      </c>
+      <c r="H264">
+        <f t="shared" si="15"/>
+        <v>1602.9153850304976</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>2630</v>
       </c>
@@ -6198,15 +8307,23 @@
         <v>-3.3947799999999999</v>
       </c>
       <c r="E265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>278.91508333333411</v>
       </c>
       <c r="F265">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>8.2033848039215915E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G265">
+        <f t="shared" si="17"/>
+        <v>1518.5095723743514</v>
+      </c>
+      <c r="H265">
+        <f t="shared" ref="H265:H295" si="19">(E266-E259)/(C266-C259)</f>
+        <v>1572.753024647232</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2640</v>
       </c>
@@ -6220,15 +8337,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>269.48530555555635</v>
       </c>
       <c r="F266">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.9260383986928334E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G266">
+        <f t="shared" si="17"/>
+        <v>1489.6963314024497</v>
+      </c>
+      <c r="H266">
+        <f t="shared" si="19"/>
+        <v>1560.849031817331</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2650</v>
       </c>
@@ -6242,15 +8367,23 @@
         <v>-3.39459</v>
       </c>
       <c r="E267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>260.05588888888968</v>
       </c>
       <c r="F267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.648702614379109E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G267">
+        <f t="shared" si="17"/>
+        <v>1489.6392838335571</v>
+      </c>
+      <c r="H267">
+        <f t="shared" si="19"/>
+        <v>1531.8654753616509</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2660</v>
       </c>
@@ -6264,15 +8397,23 @@
         <v>-3.3946700000000001</v>
       </c>
       <c r="E268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>250.62625000000079</v>
       </c>
       <c r="F268">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.3713602941176709E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G268">
+        <f t="shared" si="17"/>
+        <v>1424.416750587478</v>
+      </c>
+      <c r="H268">
+        <f t="shared" si="19"/>
+        <v>1511.529654224865</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>2670</v>
       </c>
@@ -6286,15 +8427,23 @@
         <v>-3.3947099999999999</v>
       </c>
       <c r="E269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>241.19650000000078</v>
       </c>
       <c r="F269">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.094014705882376E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G269">
+        <f t="shared" si="17"/>
+        <v>1448.502304147464</v>
+      </c>
+      <c r="H269">
+        <f t="shared" si="19"/>
+        <v>1481.6741488963678</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2680</v>
       </c>
@@ -6308,15 +8457,23 @@
         <v>-3.3948800000000001</v>
       </c>
       <c r="E270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>231.76627777777855</v>
       </c>
       <c r="F270">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.8166552287581922E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G270">
+        <f t="shared" si="17"/>
+        <v>1374.6679624230474</v>
+      </c>
+      <c r="H270">
+        <f t="shared" si="19"/>
+        <v>1452.3267326732748</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>2690</v>
       </c>
@@ -6330,15 +8487,23 @@
         <v>-3.3946200000000002</v>
       </c>
       <c r="E271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>222.33677777777856</v>
       </c>
       <c r="F271">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.5393169934640755E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G271">
+        <f t="shared" si="17"/>
+        <v>1430.8801213961287</v>
+      </c>
+      <c r="H271">
+        <f t="shared" si="19"/>
+        <v>1422.5742337164684</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>2700</v>
       </c>
@@ -6352,15 +8517,23 @@
         <v>-3.3944899999999998</v>
       </c>
       <c r="E272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>212.90763888888966</v>
       </c>
       <c r="F272">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.2619893790849895E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G272">
+        <f t="shared" si="17"/>
+        <v>1316.9188392302424</v>
+      </c>
+      <c r="H272">
+        <f t="shared" si="19"/>
+        <v>1413.438615274805</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>2710</v>
       </c>
@@ -6374,15 +8547,23 @@
         <v>-3.3947699999999998</v>
       </c>
       <c r="E273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>203.47772222222301</v>
       </c>
       <c r="F273">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5.9846388888889122E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G273">
+        <f t="shared" si="17"/>
+        <v>1422.3102061337524</v>
+      </c>
+      <c r="H273">
+        <f t="shared" si="19"/>
+        <v>1404.7232271641831</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2720</v>
       </c>
@@ -6396,15 +8577,23 @@
         <v>-3.39472</v>
       </c>
       <c r="E274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>194.04794444444522</v>
       </c>
       <c r="F274">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5.7072924836601535E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G274">
+        <f t="shared" si="17"/>
+        <v>1424.4377307821755</v>
+      </c>
+      <c r="H274">
+        <f t="shared" si="19"/>
+        <v>1402.6331633375808</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2730</v>
       </c>
@@ -6418,15 +8607,23 @@
         <v>-3.39466</v>
       </c>
       <c r="E275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>184.61833333333411</v>
       </c>
       <c r="F275">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5.4299509803921793E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G275">
+        <f t="shared" si="17"/>
+        <v>1409.5083873110138</v>
+      </c>
+      <c r="H275">
+        <f t="shared" si="19"/>
+        <v>1380.0642321183875</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2740</v>
       </c>
@@ -6440,15 +8637,23 @@
         <v>-3.3949099999999999</v>
       </c>
       <c r="E276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>175.18802777777856</v>
       </c>
       <c r="F276">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5.1525890522876046E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G276">
+        <f t="shared" si="17"/>
+        <v>1295.3716422466891</v>
+      </c>
+      <c r="H276">
+        <f t="shared" si="19"/>
+        <v>1368.03339090386</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>2750</v>
       </c>
@@ -6462,15 +8667,23 @@
         <v>-3.3945699999999999</v>
       </c>
       <c r="E277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>165.75866666666744</v>
       </c>
       <c r="F277">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.8752549019608071E-2</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G277">
+        <f t="shared" si="17"/>
+        <v>1295.241910866881</v>
+      </c>
+      <c r="H277">
+        <f t="shared" si="19"/>
+        <v>1344.3477031002456</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>2760</v>
       </c>
@@ -6484,15 +8697,23 @@
         <v>-3.3945699999999999</v>
       </c>
       <c r="E278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>156.32930555555632</v>
       </c>
       <c r="F278">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.597920751634009E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G278">
+        <f t="shared" si="17"/>
+        <v>1267.3872461171047</v>
+      </c>
+      <c r="H278">
+        <f t="shared" si="19"/>
+        <v>1331.8850327324892</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>2770</v>
       </c>
@@ -6506,15 +8727,23 @@
         <v>-3.3947600000000002</v>
       </c>
       <c r="E279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>146.89941666666743</v>
       </c>
       <c r="F279">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.3205710784313948E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G279">
+        <f t="shared" si="17"/>
+        <v>1237.5182268882752</v>
+      </c>
+      <c r="H279">
+        <f t="shared" si="19"/>
+        <v>1304.4949494949449</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>2780</v>
       </c>
@@ -6528,15 +8757,23 @@
         <v>-3.3944899999999998</v>
       </c>
       <c r="E280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>137.47027777777853</v>
       </c>
       <c r="F280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.0432434640523096E-2</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G280">
+        <f t="shared" si="17"/>
+        <v>1229.3531797768997</v>
+      </c>
+      <c r="H280">
+        <f t="shared" si="19"/>
+        <v>1269.8580650677529</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>2790</v>
       </c>
@@ -6550,15 +8787,23 @@
         <v>-3.3946399999999999</v>
       </c>
       <c r="E281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>128.04072222222297</v>
       </c>
       <c r="F281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3.7659035947712638E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G281">
+        <f t="shared" si="17"/>
+        <v>1178.6944444444448</v>
+      </c>
+      <c r="H281">
+        <f t="shared" si="19"/>
+        <v>1233.3141297126776</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>2800</v>
       </c>
@@ -6572,15 +8817,23 @@
         <v>-3.3945699999999999</v>
       </c>
       <c r="E282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>118.61136111111186</v>
       </c>
       <c r="F282">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3.4885694444444663E-2</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G282">
+        <f t="shared" si="17"/>
+        <v>1145.7303901714954</v>
+      </c>
+      <c r="H282">
+        <f t="shared" si="19"/>
+        <v>1205.5611364789386</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>2810</v>
       </c>
@@ -6594,15 +8847,23 @@
         <v>-3.3940100000000002</v>
       </c>
       <c r="E283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>109.18355555555631</v>
       </c>
       <c r="F283">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>3.2112810457516565E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G283">
+        <f t="shared" si="17"/>
+        <v>1107.850241545862</v>
+      </c>
+      <c r="H283">
+        <f t="shared" si="19"/>
+        <v>1172.3559305308906</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>2820</v>
       </c>
@@ -6616,15 +8877,23 @@
         <v>-3.3942700000000001</v>
       </c>
       <c r="E284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>99.755027777778537</v>
       </c>
       <c r="F284">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>2.9339714052287805E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G284">
+        <f t="shared" si="17"/>
+        <v>1067.7834402919734</v>
+      </c>
+      <c r="H284">
+        <f t="shared" si="19"/>
+        <v>1148.3042410886885</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>2830</v>
       </c>
@@ -6638,15 +8907,23 @@
         <v>-3.3948900000000002</v>
       </c>
       <c r="E285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>90.324777777778536</v>
       </c>
       <c r="F285">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>2.6566111111111335E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G285">
+        <f t="shared" si="17"/>
+        <v>1093.9965197215686</v>
+      </c>
+      <c r="H285">
+        <f t="shared" si="19"/>
+        <v>1121.1902874506966</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>2840</v>
       </c>
@@ -6660,15 +8937,23 @@
         <v>-3.3947400000000001</v>
       </c>
       <c r="E286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>80.894944444445201</v>
       </c>
       <c r="F286">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>2.3792630718954471E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G286">
+        <f t="shared" si="17"/>
+        <v>1046.5963743988207</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="19"/>
+        <v>1082.9354662291564</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>2850</v>
       </c>
@@ -6682,15 +8967,23 @@
         <v>-3.3946499999999999</v>
       </c>
       <c r="E287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>71.465361111111861</v>
       </c>
       <c r="F287">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>2.1019223856209371E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G287">
+        <f t="shared" si="17"/>
+        <v>967.13675213676026</v>
+      </c>
+      <c r="H287">
+        <f t="shared" si="19"/>
+        <v>1048.5319036272201</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>2860</v>
       </c>
@@ -6704,15 +8997,23 @@
         <v>-3.3946999999999998</v>
       </c>
       <c r="E288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>62.035638888889636</v>
       </c>
       <c r="F288">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.8245776143791071E-2</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G288">
+        <f t="shared" si="17"/>
+        <v>942.97222222220068</v>
+      </c>
+      <c r="H288">
+        <f t="shared" si="19"/>
+        <v>1010.5000170102702</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>2870</v>
       </c>
@@ -6726,15 +9027,23 @@
         <v>-3.3948499999999999</v>
       </c>
       <c r="E289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>52.605500000000745</v>
       </c>
       <c r="F289">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.547220588235316E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G289">
+        <f t="shared" si="17"/>
+        <v>889.63574423478724</v>
+      </c>
+      <c r="H289">
+        <f t="shared" si="19"/>
+        <v>975.00369276218817</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>2880</v>
       </c>
@@ -6748,15 +9057,23 @@
         <v>-3.3946900000000002</v>
       </c>
       <c r="E290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>43.175805555556302</v>
       </c>
       <c r="F290">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.2698766339869501E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G290">
+        <f t="shared" si="17"/>
+        <v>865.90398938885016</v>
+      </c>
+      <c r="H290">
+        <f t="shared" si="19"/>
+        <v>940.83760927404057</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>2890</v>
       </c>
@@ -6770,15 +9087,23 @@
         <v>-3.3947799999999999</v>
       </c>
       <c r="E291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>33.745861111111857</v>
       </c>
       <c r="F291">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>9.9252532679740754E-3</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G291">
+        <f t="shared" si="17"/>
+        <v>835.24751500838011</v>
+      </c>
+      <c r="H291">
+        <f t="shared" si="19"/>
+        <v>899.17888873753236</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>2900</v>
       </c>
@@ -6792,15 +9117,23 @@
         <v>-3.39473</v>
       </c>
       <c r="E292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>24.316055555556304</v>
       </c>
       <c r="F292">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.151781045751854E-3</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G292">
+        <f t="shared" si="17"/>
+        <v>794.4233829448624</v>
+      </c>
+      <c r="H292">
+        <f t="shared" si="19"/>
+        <v>849.20987177837492</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>2910</v>
       </c>
@@ -6814,15 +9147,23 @@
         <v>-3.3948700000000001</v>
       </c>
       <c r="E293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>14.88586111111186</v>
       </c>
       <c r="F293">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.3781944444446644E-3</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G293">
+        <f t="shared" si="17"/>
+        <v>707.44144369424168</v>
+      </c>
+      <c r="H293">
+        <f t="shared" si="19"/>
+        <v>816.94513201319705</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>2920</v>
       </c>
@@ -6836,15 +9177,23 @@
         <v>-3.3946800000000001</v>
       </c>
       <c r="E294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>5.4561944444451917</v>
       </c>
       <c r="F294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.6047630718956445E-3</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G294">
+        <f t="shared" si="17"/>
+        <v>735.54342173686643</v>
+      </c>
+      <c r="H294">
+        <f t="shared" si="19"/>
+        <v>791.18688987441328</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>2930</v>
       </c>
@@ -6858,15 +9207,29 @@
         <v>-3.3945400000000001</v>
       </c>
       <c r="E295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>-3.9730833333325855</v>
       </c>
       <c r="F295">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-1.1685539215684074E-3</v>
       </c>
+      <c r="G295">
+        <f t="shared" si="17"/>
+        <v>746.57781296737949</v>
+      </c>
+      <c r="H295">
+        <f t="shared" si="19"/>
+        <v>20.455614790274392</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H10:H295">
+    <cfRule type="expression" priority="1">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>